--- a/doc/前后端接口文档.xlsx
+++ b/doc/前后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="652">
   <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,44 +1367,6 @@
       "mobile": null,
       "tokenNo": null,
       "pwd": "T9oB7Rj6Mh/MQmjR4+vYA6jPet0=\n",
-      "company": null,
-      "portId": null,
-      "code": null
-    }
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "state": 1,
-  "reason": "success",
-  "result": {
-    "user:": {//见 用户登录 接口返回字段
-      "consumerId": 16,
-      "consumerName": null,
-      "nickname": null,
-      "openid": null,
-      "subscribe": null,
-      "sex": null,
-      "city": null,
-      "country": null,
-      "province": null,
-      "language": null,
-      "headimgurl": null,
-      "subscribeTime": null,
-      "unionid": null,
-      "remark": null,
-      "groupid": null,
-      "startDate": null,
-      "endDate": null,
-      "isExpiration": null,
-      "createTime": 1476533959800,
-      "messageStatus": null,
-      "idNumber": null,
-      "mobile": "15",
-      "tokenNo": null,
-      "pwd": "",
       "company": null,
       "portId": null,
       "code": null
@@ -1835,9 +1797,6 @@
     <t xml:space="preserve">      "logoUrl": null,</t>
   </si>
   <si>
-    <t xml:space="preserve">      "storetypeId": null,</t>
-  </si>
-  <si>
     <t xml:space="preserve">      "storeName": null,</t>
   </si>
   <si>
@@ -2359,87 +2318,245 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>货种id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口岸id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度开始范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度开始范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度结束范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1求购;2未售;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前位置id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1树种;2物种;3货种;4长度;5口岸;6产地;7当前位置;8产地;9材料;10服务类型;11反馈类型;</t>
+  </si>
+  <si>
+    <t>反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片发布地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见sheet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车皮号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1未售单;2我的店铺;3用户反馈</t>
+  </si>
+  <si>
+    <t>外键值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片发布地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>树种id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货种id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口岸id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚度开始范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度开始范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度结束范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1求购;2未售;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前位置id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父级id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
+    <t>新旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始发地id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货车号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inform/addInform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inform/showInform/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inform/delInform/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest/addInterest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest/delInterest/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest/updateInterest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "我的关注传参对象": {</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2447,57 +2564,297 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1树种;2物种;3货种;4长度;5口岸;6产地;7当前位置;8产地;9材料;10服务类型;11反馈类型;</t>
-  </si>
-  <si>
-    <t>反馈内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片发布地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见sheet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车皮号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1未售单;2我的店铺;3用户反馈</t>
-  </si>
-  <si>
-    <t>外键值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片发布地址</t>
+    <t>interest/interestList/{limitStart}/{limitCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitStart(开始值 url 传)+limitCount(数量 url 传)+type(类型 post 传)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "用户反馈传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url 传 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitStart(开始值 url 传)+limitCount(数量 url 传)+type(类型 post 传)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitStart(开始值 url 传)+limitCount(数量 url 传)</t>
+  </si>
+  <si>
+    <t>我的消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url传参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/msg/addMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "我的消息传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈传参对象(sheet3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注传参对象(sheet3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "发布服务传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注传参对象(sheet3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布服务传参对象(sheet3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/msg/delMsg/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "我的店铺传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的消息传参对象(sheet3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺传参对象(sheet3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/store/updateMyStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/store/delMyStore/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feedback/interestList/{limitStart}/{limitCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feedback/addFeedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feedback/updateFeedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feedback/delFeedback/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feedback/filesUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格订阅列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车皮号订阅列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscript/vehiclenumList/{limitStart}/{limitCount}/{type}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscript/addStandard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加规格订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加车皮号订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscript/addVehiclenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscript/updateVehiclenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscript/delVehiclenum/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新规格订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新车皮号订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除规格订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除车皮号订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未售列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未售单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "规格订阅传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格订阅传参对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格订阅传参对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "车皮号订阅传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车皮号订阅传参对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车皮号订阅传参对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "未售单规格传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未售单规格传参对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unsold/unsoldList/{limitStart}/{limitCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unsold/showOrderDetail/{orderId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建未售单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unsold/addUnsoldOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加规格信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "未售单传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未售单传参对象</t>
+  </si>
+  <si>
+    <t>/unsold/addDimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新规格信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unsold/updateDimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除规格信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unsold/delDimension/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unsold/addUnsoldReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报未售单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "举报订单传参对象": {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报订单传参对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscript/standardList/limitStart}/{limitCount}/{type}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/msg/msgList/{limitStart}/{limitCount}/{fromUser}/{toUser}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2505,186 +2862,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新旧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>始发地id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斜裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维度id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货车号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inform/addInform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inform/showInform/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inform/delInform/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interest/addInterest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interest/delInterest/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interest/updateInterest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "我的关注传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interest/interestList/{limitStart}/{limitCount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limitStart(开始值 url 传)+limitCount(数量 url 传)+type(类型 post 传)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "用户反馈传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url 传 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limitStart(开始值 url 传)+limitCount(数量 url 传)+type(类型 post 传)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limitStart(开始值 url 传)+limitCount(数量 url 传)</t>
-  </si>
-  <si>
-    <t>我的消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url传参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/msg/addMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "我的消息传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户反馈传参对象(sheet3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的关注传参对象(sheet3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "发布服务传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的关注传参对象(sheet3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布服务传参对象(sheet3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/msg/delMsg/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺列表</t>
+    <t>/subscript/updateStandard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "state": 1,
+  "reason": "success",
+  "result": {
+    "user:": {//见 用户登录 接口返回字段
+      "consumerId": 16,
+      "consumerName": null,
+      "nickname": null,
+      "openid": null,
+      "subscribe": null,
+      "sex": null,
+      "city": null,
+      "country": null,
+      "province": null,
+      "language": null,
+      "headimgurl": null,
+      "subscribeTime": null,
+      "unionid": null,
+      "remark": null,
+      "groupid": null,
+      "startDate": null,
+      "endDate": null,
+      "isExpiration": null,
+      "createTime": 1476533959800,
+      "messageStatus": null,
+      "idNumber": null,
+      "mobile": "15",
+      "tokenNo": null,
+      "pwd": "",
+      "company": null,
+      "portId": null,
+      "code": null
+    }
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscript/delStandard/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只有两种，1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/store/addMyStore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2692,230 +2920,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "我的店铺传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的消息传参对象(sheet3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺传参对象(sheet3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/store/addMyStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/store/updateMyStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/store/delMyStore/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/feedback/interestList/{limitStart}/{limitCount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/feedback/addFeedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/feedback/updateFeedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/feedback/delFeedback/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/feedback/filesUpload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格订阅列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车皮号订阅列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/vehiclenumList/{limitStart}/{limitCount}/{type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/addStandard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加规格订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加车皮号订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/addVehiclenum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/updateStandard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/updateVehiclenum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/delStandard/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/delVehiclenum/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新规格订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新车皮号订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除规格订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除车皮号订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未售列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未售单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "规格订阅传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格订阅传参对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格订阅传参对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "车皮号订阅传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车皮号订阅传参对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车皮号订阅传参对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "未售单规格传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未售单规格传参对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/unsold/unsoldList/{limitStart}/{limitCount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/unsold/showOrderDetail/{orderId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建未售单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/unsold/addUnsoldOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加规格信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "未售单传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未售单传参对象</t>
-  </si>
-  <si>
-    <t>/unsold/addDimension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新规格信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/unsold/updateDimension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除规格信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/unsold/delDimension/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/unsold/addUnsoldReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报未售单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "举报订单传参对象": {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报订单传参对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/standardList/limitStart}/{limitCount}/{type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/msg/msgList/{limitStart}/{limitCount}/{fromUser}/{toUser}</t>
+    <t xml:space="preserve">      "storetypeId": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要传{provice: "北京", storetypeId: 1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3777,10 +3786,10 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -4774,10 +4783,10 @@
     </row>
     <row r="110" spans="2:21">
       <c r="B110" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" t="s">
         <v>325</v>
-      </c>
-      <c r="C110" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4796,15 +4805,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85.33203125" customWidth="1"/>
-    <col min="3" max="3" width="74.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
     <col min="4" max="4" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4819,7 +4828,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409">
@@ -4847,7 +4856,7 @@
         <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>316</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="392">
@@ -4861,7 +4870,7 @@
         <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409">
@@ -4875,7 +4884,7 @@
         <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409">
@@ -4889,7 +4898,7 @@
         <v>298</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409">
@@ -4903,7 +4912,7 @@
         <v>299</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="392">
@@ -4931,372 +4940,375 @@
         <v>299</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="56">
       <c r="A10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="98">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C15" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B19" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B20" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B22" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B23" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B24" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C24" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C25" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B27" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C27" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B28" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C28" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B29" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B31" t="s">
+        <v>649</v>
+      </c>
+      <c r="C31" t="s">
         <v>592</v>
       </c>
-      <c r="C31" t="s">
-        <v>596</v>
+      <c r="D31" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B32" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="C32" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B33" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B34" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B36" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B37" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B38" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C38" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B39" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C39" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B40" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="C40" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B41" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C41" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B42" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B43" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B45" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B46" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B47" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C47" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B48" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C48" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B49" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C49" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B50" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B51" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C51" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5327,8 +5339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5340,1586 +5352,1589 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C40" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C44" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>344</v>
-      </c>
-      <c r="B50" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>343</v>
       </c>
-      <c r="B51" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>371</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="B59" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>342</v>
+      </c>
+      <c r="B60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>372</v>
-      </c>
-      <c r="B53" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>367</v>
-      </c>
-      <c r="B54" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>361</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>363</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>650</v>
+      </c>
+      <c r="B63" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>344</v>
-      </c>
-      <c r="B59" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>343</v>
-      </c>
-      <c r="B60" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>373</v>
-      </c>
-      <c r="B61" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="C63" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>374</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>375</v>
-      </c>
-      <c r="B63" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>376</v>
-      </c>
-      <c r="B64" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B69" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B70" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B71" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B72" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B75" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B78" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B79" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B80" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C80" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B81" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B84" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>509</v>
+        <v>643</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B94" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B97" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B98" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C99" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B106" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B107" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B109" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B110" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B111" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B112" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B113" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B114" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B115" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B116" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B117" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B118" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B119" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B120" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B122" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B123" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B124" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B127" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B128" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B129" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B130" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B131" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B132" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B133" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B136" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B137" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B138" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B139" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B140" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B141" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C141" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B142" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B143" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B146" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B147" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B148" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B149" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B150" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B151" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B152" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B154" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B183" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B213" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B214" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B215" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B216" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B217" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B220" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B221" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C221" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B222" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B223" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B224" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B225" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/doc/前后端接口文档.xlsx
+++ b/doc/前后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="30420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="655">
   <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1675,10 +1675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/inform/informList/{limitStart}/{limitCount}/{type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2667,10 +2663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/store/delMyStore/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2916,15 +2908,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要传{provice: "北京", storetypeId: 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/store/myStoreList/{limitStart}/{limitCount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>显示店铺详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">      "storetypeId": null,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要传{provice: "北京", storetypeId: 1}</t>
+    <t>/store/showMyStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/store/delMyStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inform/informList/{limitStart}/{limitCount}/{type}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4803,10 +4815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4828,7 +4840,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409">
@@ -4856,7 +4868,7 @@
         <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="392">
@@ -4870,7 +4882,7 @@
         <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409">
@@ -4959,7 +4971,7 @@
         <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>333</v>
@@ -4970,10 +4982,10 @@
         <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -4982,10 +4994,10 @@
         <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4993,10 +5005,10 @@
         <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5004,10 +5016,10 @@
         <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5015,300 +5027,314 @@
         <v>332</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>654</v>
       </c>
       <c r="C17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B19" t="s">
         <v>556</v>
-      </c>
-      <c r="B19" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B20" t="s">
         <v>558</v>
-      </c>
-      <c r="B20" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B22" t="s">
+        <v>568</v>
+      </c>
+      <c r="C22" t="s">
         <v>569</v>
-      </c>
-      <c r="C22" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>560</v>
+      </c>
+      <c r="B23" t="s">
         <v>561</v>
       </c>
-      <c r="B23" t="s">
-        <v>562</v>
-      </c>
       <c r="C23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>574</v>
+      </c>
+      <c r="B27" t="s">
+        <v>640</v>
+      </c>
+      <c r="C27" t="s">
         <v>575</v>
-      </c>
-      <c r="B27" t="s">
-        <v>642</v>
-      </c>
-      <c r="C27" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B29" t="s">
+        <v>584</v>
+      </c>
+      <c r="C29" t="s">
         <v>586</v>
-      </c>
-      <c r="B29" t="s">
-        <v>585</v>
-      </c>
-      <c r="C29" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B31" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C31" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D31" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B32" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>602</v>
-      </c>
-      <c r="B36" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>603</v>
-      </c>
-      <c r="B37" t="s">
-        <v>604</v>
+        <v>653</v>
+      </c>
+      <c r="C34" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>649</v>
+      </c>
+      <c r="B35" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B38" t="s">
-        <v>605</v>
-      </c>
-      <c r="C38" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B39" t="s">
-        <v>608</v>
-      </c>
-      <c r="C39" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B40" t="s">
-        <v>644</v>
+        <v>603</v>
       </c>
       <c r="C40" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B41" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C41" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B42" t="s">
-        <v>646</v>
+        <v>642</v>
+      </c>
+      <c r="C42" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B43" t="s">
-        <v>610</v>
+        <v>607</v>
+      </c>
+      <c r="C43" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>611</v>
+      </c>
+      <c r="B44" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B45" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>616</v>
-      </c>
-      <c r="B46" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B47" t="s">
-        <v>628</v>
-      </c>
-      <c r="C47" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="B48" t="s">
-        <v>632</v>
-      </c>
-      <c r="C48" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B49" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C49" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B50" t="s">
-        <v>636</v>
+        <v>630</v>
+      </c>
+      <c r="C50" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>631</v>
+      </c>
+      <c r="B51" t="s">
+        <v>632</v>
+      </c>
+      <c r="C51" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B52" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>636</v>
+      </c>
+      <c r="B53" t="s">
+        <v>635</v>
+      </c>
+      <c r="C53" t="s">
         <v>638</v>
-      </c>
-      <c r="B51" t="s">
-        <v>637</v>
-      </c>
-      <c r="C51" t="s">
-        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5340,7 +5366,7 @@
   <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5352,468 +5378,468 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" t="s">
         <v>443</v>
-      </c>
-      <c r="B6" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" t="s">
         <v>457</v>
-      </c>
-      <c r="B18" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" t="s">
         <v>468</v>
-      </c>
-      <c r="C31" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C44" t="s">
         <v>480</v>
-      </c>
-      <c r="C44" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5821,1120 +5847,1120 @@
         <v>650</v>
       </c>
       <c r="B63" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C63" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B69" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B70" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B72" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B80" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s">
+        <v>503</v>
+      </c>
+      <c r="C81" t="s">
         <v>504</v>
-      </c>
-      <c r="C81" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B86" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B93" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B94" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B95" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B96" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B97" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B98" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B99" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C99" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B103" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B106" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B108" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B109" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B110" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B111" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B112" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B113" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B114" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B115" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B116" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B117" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B118" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B119" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B120" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B121" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B122" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B123" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B124" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B127" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B128" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B129" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B130" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B131" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B132" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B136" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B138" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B139" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B140" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B141" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C141" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B142" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B143" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B146" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B147" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B148" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B149" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B150" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B151" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B152" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B154" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B183" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B213" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B214" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B215" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B216" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B217" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B220" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B221" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C221" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B222" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B224" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B225" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/doc/前后端接口文档.xlsx
+++ b/doc/前后端接口文档.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="30420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="685">
   <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,6 +1362,44 @@
       "mobile": null,
       "tokenNo": null,
       "pwd": "T9oB7Rj6Mh/MQmjR4+vYA6jPet0=\n",
+      "company": null,
+      "portId": null,
+      "code": null
+    }
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "state": 1,
+  "reason": "success",
+  "result": {
+    "user:": {//见 用户登录 接口返回字段
+      "consumerId": 16,
+      "consumerName": null,
+      "nickname": null,
+      "openid": null,
+      "subscribe": null,
+      "sex": null,
+      "city": null,
+      "country": null,
+      "province": null,
+      "language": null,
+      "headimgurl": null,
+      "subscribeTime": null,
+      "unionid": null,
+      "remark": null,
+      "groupid": null,
+      "startDate": null,
+      "endDate": null,
+      "isExpiration": null,
+      "createTime": 1476533959800,
+      "messageStatus": null,
+      "idNumber": null,
+      "mobile": "15",
+      "tokenNo": null,
+      "pwd": "",
       "company": null,
       "portId": null,
       "code": null
@@ -1675,6 +1708,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/inform/informList/{limitStart}/{limitCount}/{type}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>发布服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1793,6 +1830,9 @@
     <t xml:space="preserve">      "logoUrl": null,</t>
   </si>
   <si>
+    <t xml:space="preserve">      "storetypeId": null,</t>
+  </si>
+  <si>
     <t xml:space="preserve">      "storeName": null,</t>
   </si>
   <si>
@@ -1992,12 +2032,6 @@
   </si>
   <si>
     <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  }</t>
-  </si>
-  <si>
-    <t>}</t>
   </si>
   <si>
     <t xml:space="preserve">      "orderId": null,</t>
@@ -2314,6 +2348,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>树种id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>货种id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2583,6 +2621,10 @@
     <t>limitStart(开始值 url 传)+limitCount(数量 url 传)</t>
   </si>
   <si>
+    <t>/msg/msgList/{limitStart}/{limitCount}/{fromUser}/{toUser}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我的消息列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2639,6 +2681,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/store/myStoreList/{limitStart}/{limitCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新增店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2655,6 +2701,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/store/addMyStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/store/updateMyStore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2663,6 +2713,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/store/delMyStore/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>删除店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2715,10 +2769,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/subscript/updateStandard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/subscript/updateVehiclenum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/subscript/delStandard/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/subscript/delVehiclenum/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2842,101 +2904,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/subscript/standardList/limitStart}/{limitCount}/{type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/msg/msgList/{limitStart}/{limitCount}/{fromUser}/{toUser}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树种id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/updateStandard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "state": 1,
-  "reason": "success",
-  "result": {
-    "user:": {//见 用户登录 接口返回字段
-      "consumerId": 16,
-      "consumerName": null,
-      "nickname": null,
-      "openid": null,
-      "subscribe": null,
-      "sex": null,
-      "city": null,
-      "country": null,
-      "province": null,
-      "language": null,
-      "headimgurl": null,
-      "subscribeTime": null,
-      "unionid": null,
-      "remark": null,
-      "groupid": null,
-      "startDate": null,
-      "endDate": null,
-      "isExpiration": null,
-      "createTime": 1476533959800,
-      "messageStatus": null,
-      "idNumber": null,
-      "mobile": "15",
-      "tokenNo": null,
-      "pwd": "",
-      "company": null,
-      "portId": null,
-      "code": null
-    }
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscript/delStandard/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前只有两种，1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/store/addMyStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要传{provice: "北京", storetypeId: 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/store/myStoreList/{limitStart}/{limitCount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示店铺详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      "storetypeId": null,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/store/showMyStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/store/delMyStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inform/informList/{limitStart}/{limitCount}/{type}</t>
+    <t>查看店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/store/showMyStore/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/store/unsoldOrdersInStore/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitStart,limitCount,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscript/standardList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitStart,limitCount,type(1求购;2未售;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "buyingOrderId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "dimensionId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "feedbackId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "fromUser": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "id": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "informId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "interestId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "limitCount": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "limitStart": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "msgId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "storeId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "subscriptId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "toUser": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "type": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "unsoldOrderId": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "userId": 0</t>
+  </si>
+  <si>
+    <t>url中参数对象: {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求购单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未售单规格id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自于某个用户（消息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询开始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅记录id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送至某用户（消息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未售单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2944,7 +3044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2974,13 +3074,6 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3016,7 +3109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3029,13 +3122,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3093,7 +3183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3128,7 +3218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3339,37 +3429,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.1640625" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.25" customWidth="1"/>
+    <col min="11" max="11" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +3467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3388,7 +3478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="98">
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>234</v>
       </c>
@@ -3396,7 +3486,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>249</v>
       </c>
@@ -3410,7 +3500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="98">
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>234</v>
       </c>
@@ -3418,7 +3508,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3432,7 +3522,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>234</v>
       </c>
@@ -3440,7 +3530,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>238</v>
       </c>
@@ -3454,7 +3544,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>234</v>
       </c>
@@ -3462,12 +3552,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>243</v>
       </c>
@@ -3481,7 +3571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>234</v>
       </c>
@@ -3489,12 +3579,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -3520,7 +3610,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="409">
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>234</v>
       </c>
@@ -3528,7 +3618,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -3539,12 +3629,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>150</v>
       </c>
@@ -3552,7 +3642,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -3572,7 +3662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>292</v>
       </c>
@@ -3586,7 +3676,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>132</v>
       </c>
@@ -3597,7 +3687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>133</v>
       </c>
@@ -3662,7 +3752,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>269</v>
       </c>
@@ -3673,7 +3763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>247</v>
       </c>
@@ -3693,12 +3783,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -3712,7 +3802,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>293</v>
       </c>
@@ -3723,7 +3813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>123</v>
       </c>
@@ -3734,7 +3824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="15" customHeight="1">
+    <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>125</v>
       </c>
@@ -3796,12 +3886,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" t="s">
         <v>323</v>
-      </c>
-      <c r="C30" t="s">
-        <v>322</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -3813,12 +3903,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -3826,7 +3916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -3837,7 +3927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -3851,7 +3941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>109</v>
       </c>
@@ -3859,7 +3949,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>110</v>
       </c>
@@ -3885,7 +3975,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>48</v>
       </c>
@@ -3893,7 +3983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>43</v>
       </c>
@@ -3904,7 +3994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -3912,7 +4002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>53</v>
       </c>
@@ -3923,7 +4013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -3931,7 +4021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>54</v>
       </c>
@@ -3942,7 +4032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>58</v>
       </c>
@@ -3950,7 +4040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>59</v>
       </c>
@@ -3961,7 +4051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -3969,7 +4059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>63</v>
       </c>
@@ -3980,7 +4070,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>65</v>
       </c>
@@ -3988,7 +4078,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>66</v>
       </c>
@@ -3999,7 +4089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>73</v>
       </c>
@@ -4010,7 +4100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>81</v>
       </c>
@@ -4021,7 +4111,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>77</v>
       </c>
@@ -4032,7 +4122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>284</v>
       </c>
@@ -4043,12 +4133,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>83</v>
       </c>
@@ -4059,7 +4149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>275</v>
       </c>
@@ -4106,7 +4196,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>94</v>
       </c>
@@ -4117,7 +4207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -4137,12 +4227,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>100</v>
       </c>
@@ -4159,7 +4249,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>103</v>
       </c>
@@ -4173,7 +4263,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>106</v>
       </c>
@@ -4181,7 +4271,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>107</v>
       </c>
@@ -4201,12 +4291,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>119</v>
       </c>
@@ -4214,7 +4304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>122</v>
       </c>
@@ -4225,12 +4315,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>156</v>
       </c>
@@ -4241,7 +4331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>153</v>
       </c>
@@ -4252,7 +4342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>157</v>
       </c>
@@ -4263,7 +4353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>159</v>
       </c>
@@ -4271,7 +4361,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>160</v>
       </c>
@@ -4309,7 +4399,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="2" customFormat="1">
+    <row r="78" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>171</v>
       </c>
@@ -4320,7 +4410,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>173</v>
       </c>
@@ -4328,7 +4418,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>174</v>
       </c>
@@ -4390,7 +4480,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="2" customFormat="1">
+    <row r="81" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>171</v>
       </c>
@@ -4401,7 +4491,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="2" customFormat="1">
+    <row r="82" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>171</v>
       </c>
@@ -4412,7 +4502,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="2" customFormat="1">
+    <row r="83" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>171</v>
       </c>
@@ -4426,7 +4516,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="2" customFormat="1">
+    <row r="84" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>171</v>
       </c>
@@ -4440,12 +4530,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>285</v>
       </c>
@@ -4456,7 +4546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>185</v>
       </c>
@@ -4470,7 +4560,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>188</v>
       </c>
@@ -4481,7 +4571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>190</v>
       </c>
@@ -4510,7 +4600,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>195</v>
       </c>
@@ -4521,7 +4611,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>198</v>
       </c>
@@ -4538,7 +4628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>203</v>
       </c>
@@ -4549,7 +4639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>214</v>
       </c>
@@ -4560,7 +4650,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>213</v>
       </c>
@@ -4598,7 +4688,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>206</v>
       </c>
@@ -4609,7 +4699,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="2:21">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>209</v>
       </c>
@@ -4620,7 +4710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:21">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>218</v>
       </c>
@@ -4631,7 +4721,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="2:21">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>217</v>
       </c>
@@ -4693,7 +4783,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="2:21">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>212</v>
       </c>
@@ -4704,7 +4794,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="2:21">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>220</v>
       </c>
@@ -4715,7 +4805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="2:21">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>271</v>
       </c>
@@ -4726,7 +4816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="2:21">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>224</v>
       </c>
@@ -4737,7 +4827,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="2:21">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>227</v>
       </c>
@@ -4751,7 +4841,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="2:21">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>230</v>
       </c>
@@ -4759,7 +4849,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="2:21">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>231</v>
       </c>
@@ -4779,7 +4869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="2:21">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>272</v>
       </c>
@@ -4793,43 +4883,38 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="2:21">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C110" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.33203125" customWidth="1"/>
-    <col min="3" max="3" width="65.5" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
+    <col min="3" max="3" width="69.25" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="409">
+    <row r="1" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>296</v>
       </c>
@@ -4840,10 +4925,10 @@
         <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="409">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -4857,7 +4942,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409">
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -4868,10 +4953,10 @@
         <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="392">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="378" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -4882,10 +4967,10 @@
         <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="409">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -4896,10 +4981,10 @@
         <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="409">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -4910,10 +4995,10 @@
         <v>298</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="409">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -4924,10 +5009,10 @@
         <v>299</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="392">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="378" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>303</v>
       </c>
@@ -4941,7 +5026,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409">
+    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -4952,389 +5037,391 @@
         <v>299</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="56">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="98">
-      <c r="A11" t="s">
-        <v>326</v>
-      </c>
       <c r="B11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C12" t="s">
+        <v>575</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>603</v>
+      </c>
+      <c r="C14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" t="s">
+        <v>604</v>
+      </c>
+      <c r="C15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" t="s">
+        <v>574</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" t="s">
+        <v>556</v>
+      </c>
+      <c r="C18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>561</v>
+      </c>
+      <c r="B22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>562</v>
+      </c>
+      <c r="B23" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>565</v>
+      </c>
+      <c r="B24" t="s">
+        <v>564</v>
+      </c>
+      <c r="C24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C25" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>577</v>
+      </c>
+      <c r="B27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>580</v>
+      </c>
+      <c r="B28" t="s">
+        <v>579</v>
+      </c>
+      <c r="C28" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C29" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>590</v>
+      </c>
+      <c r="B31" t="s">
+        <v>591</v>
+      </c>
+      <c r="C31" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>592</v>
+      </c>
+      <c r="B32" t="s">
+        <v>596</v>
+      </c>
+      <c r="C32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>598</v>
+      </c>
+      <c r="B33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>600</v>
+      </c>
+      <c r="B34" t="s">
         <v>599</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" t="s">
-        <v>595</v>
-      </c>
-      <c r="C12" t="s">
-        <v>573</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" t="s">
-        <v>596</v>
-      </c>
-      <c r="C13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" t="s">
-        <v>597</v>
-      </c>
-      <c r="C14" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B15" t="s">
-        <v>598</v>
-      </c>
-      <c r="C15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" t="s">
-        <v>654</v>
-      </c>
-      <c r="C17" t="s">
-        <v>572</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" t="s">
-        <v>554</v>
-      </c>
-      <c r="C18" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>555</v>
-      </c>
-      <c r="B19" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>557</v>
-      </c>
-      <c r="B20" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>559</v>
-      </c>
-      <c r="B22" t="s">
-        <v>568</v>
-      </c>
-      <c r="C22" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>560</v>
-      </c>
-      <c r="B23" t="s">
-        <v>561</v>
-      </c>
-      <c r="C23" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>563</v>
-      </c>
-      <c r="B24" t="s">
-        <v>562</v>
-      </c>
-      <c r="C24" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>565</v>
-      </c>
-      <c r="B25" t="s">
-        <v>564</v>
-      </c>
-      <c r="C25" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>574</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>647</v>
+      </c>
+      <c r="B35" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>606</v>
+      </c>
+      <c r="B37" t="s">
+        <v>651</v>
+      </c>
+      <c r="C37" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" t="s">
+        <v>608</v>
+      </c>
+      <c r="C38" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>610</v>
+      </c>
+      <c r="B39" t="s">
+        <v>609</v>
+      </c>
+      <c r="C39" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>611</v>
+      </c>
+      <c r="B40" t="s">
+        <v>612</v>
+      </c>
+      <c r="C40" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>617</v>
+      </c>
+      <c r="B41" t="s">
+        <v>613</v>
+      </c>
+      <c r="C41" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" t="s">
+        <v>614</v>
+      </c>
+      <c r="C42" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>619</v>
+      </c>
+      <c r="B43" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>620</v>
+      </c>
+      <c r="B44" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>621</v>
+      </c>
+      <c r="B46" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>622</v>
+      </c>
+      <c r="B47" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>633</v>
+      </c>
+      <c r="B48" t="s">
+        <v>634</v>
+      </c>
+      <c r="C48" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>635</v>
+      </c>
+      <c r="B49" t="s">
+        <v>638</v>
+      </c>
+      <c r="C49" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>639</v>
+      </c>
+      <c r="B50" t="s">
         <v>640</v>
       </c>
-      <c r="C27" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>577</v>
-      </c>
-      <c r="B28" t="s">
-        <v>576</v>
-      </c>
-      <c r="C28" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>585</v>
-      </c>
-      <c r="B29" t="s">
-        <v>584</v>
-      </c>
-      <c r="C29" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>587</v>
-      </c>
-      <c r="B31" t="s">
-        <v>648</v>
-      </c>
-      <c r="C31" t="s">
-        <v>591</v>
-      </c>
-      <c r="D31" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>588</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C50" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>641</v>
+      </c>
+      <c r="B51" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>644</v>
+      </c>
+      <c r="B52" t="s">
+        <v>643</v>
+      </c>
+      <c r="C52" t="s">
         <v>646</v>
-      </c>
-      <c r="C32" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>593</v>
-      </c>
-      <c r="B33" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>594</v>
-      </c>
-      <c r="B34" t="s">
-        <v>653</v>
-      </c>
-      <c r="C34" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>649</v>
-      </c>
-      <c r="B35" t="s">
-        <v>651</v>
-      </c>
-      <c r="C35" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>600</v>
-      </c>
-      <c r="B38" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>601</v>
-      </c>
-      <c r="B39" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>604</v>
-      </c>
-      <c r="B40" t="s">
-        <v>603</v>
-      </c>
-      <c r="C40" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>605</v>
-      </c>
-      <c r="B41" t="s">
-        <v>606</v>
-      </c>
-      <c r="C41" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>609</v>
-      </c>
-      <c r="B42" t="s">
-        <v>642</v>
-      </c>
-      <c r="C42" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>610</v>
-      </c>
-      <c r="B43" t="s">
-        <v>607</v>
-      </c>
-      <c r="C43" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>611</v>
-      </c>
-      <c r="B44" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>612</v>
-      </c>
-      <c r="B45" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>613</v>
-      </c>
-      <c r="B47" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>614</v>
-      </c>
-      <c r="B48" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>625</v>
-      </c>
-      <c r="B49" t="s">
-        <v>626</v>
-      </c>
-      <c r="C49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>627</v>
-      </c>
-      <c r="B50" t="s">
-        <v>630</v>
-      </c>
-      <c r="C50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>631</v>
-      </c>
-      <c r="B51" t="s">
-        <v>632</v>
-      </c>
-      <c r="C51" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>633</v>
-      </c>
-      <c r="B52" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>636</v>
-      </c>
-      <c r="B53" t="s">
-        <v>635</v>
-      </c>
-      <c r="C53" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -5352,1625 +5439,1740 @@
     <hyperlink ref="B10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="72.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.875" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" t="s">
+        <v>468</v>
+      </c>
+      <c r="C31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" t="s">
+        <v>478</v>
+      </c>
+      <c r="C40" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>368</v>
+      </c>
+      <c r="B44" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>369</v>
+      </c>
+      <c r="B45" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B49" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>343</v>
+      </c>
+      <c r="B51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>372</v>
+      </c>
+      <c r="B53" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>344</v>
+      </c>
+      <c r="B59" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>373</v>
+      </c>
+      <c r="B61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>374</v>
+      </c>
+      <c r="B62" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>377</v>
+      </c>
+      <c r="B65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>378</v>
+      </c>
+      <c r="B66" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>379</v>
+      </c>
+      <c r="B67" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B69" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>383</v>
+      </c>
+      <c r="B71" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>344</v>
+      </c>
+      <c r="B76" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>373</v>
+      </c>
+      <c r="B78" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" t="s">
+        <v>476</v>
+      </c>
+      <c r="C80" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" t="s">
+        <v>504</v>
+      </c>
+      <c r="C81" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>387</v>
+      </c>
+      <c r="B91" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>388</v>
+      </c>
+      <c r="B92" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>354</v>
+      </c>
+      <c r="B93" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>355</v>
+      </c>
+      <c r="B94" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>357</v>
+      </c>
+      <c r="B95" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>358</v>
+      </c>
+      <c r="B96" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>359</v>
+      </c>
+      <c r="B97" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>389</v>
+      </c>
+      <c r="B99" t="s">
+        <v>518</v>
+      </c>
+      <c r="C99" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>343</v>
+      </c>
+      <c r="B103" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>344</v>
+      </c>
+      <c r="B104" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>351</v>
+      </c>
+      <c r="B105" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>391</v>
+      </c>
+      <c r="B108" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>350</v>
+      </c>
+      <c r="B109" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>392</v>
+      </c>
+      <c r="B111" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>393</v>
+      </c>
+      <c r="B112" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>394</v>
+      </c>
+      <c r="B113" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>395</v>
+      </c>
+      <c r="B114" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>396</v>
+      </c>
+      <c r="B115" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>397</v>
+      </c>
+      <c r="B116" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>398</v>
+      </c>
+      <c r="B117" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>400</v>
+      </c>
+      <c r="B119" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>401</v>
+      </c>
+      <c r="B120" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>402</v>
+      </c>
+      <c r="B122" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>403</v>
+      </c>
+      <c r="B123" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>404</v>
+      </c>
+      <c r="B127" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>345</v>
+      </c>
+      <c r="B128" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>346</v>
+      </c>
+      <c r="B129" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>347</v>
+      </c>
+      <c r="B130" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>343</v>
+      </c>
+      <c r="B132" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>405</v>
+      </c>
+      <c r="B133" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>363</v>
+      </c>
+      <c r="B136" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>407</v>
+      </c>
+      <c r="B137" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>408</v>
+      </c>
+      <c r="B138" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>367</v>
+      </c>
+      <c r="B139" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B140" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>364</v>
+      </c>
+      <c r="B141" t="s">
+        <v>516</v>
+      </c>
+      <c r="C141" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>409</v>
+      </c>
+      <c r="B142" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>410</v>
+      </c>
+      <c r="B143" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>363</v>
+      </c>
+      <c r="B146" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>344</v>
+      </c>
+      <c r="B147" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>343</v>
+      </c>
+      <c r="B148" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>411</v>
+      </c>
+      <c r="B149" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>387</v>
+      </c>
+      <c r="B150" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>388</v>
+      </c>
+      <c r="B151" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>389</v>
+      </c>
+      <c r="B152" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>412</v>
+      </c>
+      <c r="B154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>434</v>
+      </c>
+      <c r="B183" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>363</v>
+      </c>
+      <c r="B213" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B214" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>436</v>
+      </c>
+      <c r="B215" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>344</v>
+      </c>
+      <c r="B216" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>361</v>
+      </c>
+      <c r="B217" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>363</v>
+      </c>
+      <c r="B220" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>364</v>
+      </c>
+      <c r="B221" t="s">
+        <v>516</v>
+      </c>
+      <c r="C221" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>438</v>
+      </c>
+      <c r="B222" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>439</v>
+      </c>
+      <c r="B223" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>440</v>
+      </c>
+      <c r="B224" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>441</v>
+      </c>
+      <c r="B225" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
         <v>442</v>
       </c>
-      <c r="B6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>346</v>
-      </c>
-      <c r="B12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>456</v>
-      </c>
-      <c r="B18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>353</v>
-      </c>
-      <c r="B19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>354</v>
-      </c>
-      <c r="B20" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>356</v>
-      </c>
-      <c r="B22" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>357</v>
-      </c>
-      <c r="B23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>358</v>
-      </c>
-      <c r="B24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>359</v>
-      </c>
-      <c r="B25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>342</v>
-      </c>
-      <c r="B29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>341</v>
-      </c>
-      <c r="B30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>362</v>
-      </c>
-      <c r="B31" t="s">
-        <v>467</v>
-      </c>
-      <c r="C31" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>363</v>
-      </c>
-      <c r="B32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>364</v>
-      </c>
-      <c r="B33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>348</v>
-      </c>
-      <c r="B34" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>359</v>
-      </c>
-      <c r="B35" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>361</v>
-      </c>
-      <c r="B38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>340</v>
-      </c>
-      <c r="B39" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>362</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>653</v>
+      </c>
+      <c r="B228" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>654</v>
+      </c>
+      <c r="B229" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>655</v>
+      </c>
+      <c r="B230" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>656</v>
+      </c>
+      <c r="B231" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>658</v>
+      </c>
+      <c r="B233" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>659</v>
+      </c>
+      <c r="B234" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>660</v>
+      </c>
+      <c r="B235" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>661</v>
+      </c>
+      <c r="B236" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>662</v>
+      </c>
+      <c r="B237" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>663</v>
+      </c>
+      <c r="B238" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>664</v>
+      </c>
+      <c r="B239" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>665</v>
+      </c>
+      <c r="B240" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>666</v>
+      </c>
+      <c r="B241" t="s">
+        <v>682</v>
+      </c>
+      <c r="C241" t="s">
         <v>477</v>
       </c>
-      <c r="C40" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>365</v>
-      </c>
-      <c r="B41" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>342</v>
-      </c>
-      <c r="B42" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>341</v>
-      </c>
-      <c r="B43" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B44" t="s">
-        <v>479</v>
-      </c>
-      <c r="C44" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>367</v>
-      </c>
-      <c r="B45" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>368</v>
-      </c>
-      <c r="B46" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>361</v>
-      </c>
-      <c r="B49" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>342</v>
-      </c>
-      <c r="B50" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>341</v>
-      </c>
-      <c r="B51" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>369</v>
-      </c>
-      <c r="B52" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>370</v>
-      </c>
-      <c r="B53" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>365</v>
-      </c>
-      <c r="B54" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>359</v>
-      </c>
-      <c r="B55" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>361</v>
-      </c>
-      <c r="B58" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>342</v>
-      </c>
-      <c r="B59" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>341</v>
-      </c>
-      <c r="B60" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>371</v>
-      </c>
-      <c r="B61" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>372</v>
-      </c>
-      <c r="B62" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>650</v>
-      </c>
-      <c r="B63" t="s">
-        <v>490</v>
-      </c>
-      <c r="C63" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>373</v>
-      </c>
-      <c r="B64" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>374</v>
-      </c>
-      <c r="B65" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>375</v>
-      </c>
-      <c r="B66" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>376</v>
-      </c>
-      <c r="B67" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>377</v>
-      </c>
-      <c r="B68" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>378</v>
-      </c>
-      <c r="B69" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>379</v>
-      </c>
-      <c r="B70" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>380</v>
-      </c>
-      <c r="B71" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>381</v>
-      </c>
-      <c r="B72" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>361</v>
-      </c>
-      <c r="B75" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>342</v>
-      </c>
-      <c r="B76" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>341</v>
-      </c>
-      <c r="B77" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>371</v>
-      </c>
-      <c r="B78" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>340</v>
-      </c>
-      <c r="B79" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>382</v>
-      </c>
-      <c r="B80" t="s">
-        <v>475</v>
-      </c>
-      <c r="C80" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>383</v>
-      </c>
-      <c r="B81" t="s">
-        <v>503</v>
-      </c>
-      <c r="C81" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>361</v>
-      </c>
-      <c r="B84" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>342</v>
-      </c>
-      <c r="B85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>341</v>
-      </c>
-      <c r="B86" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>352</v>
-      </c>
-      <c r="B93" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>353</v>
-      </c>
-      <c r="B94" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>355</v>
-      </c>
-      <c r="B95" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>356</v>
-      </c>
-      <c r="B96" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>357</v>
-      </c>
-      <c r="B97" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>358</v>
-      </c>
-      <c r="B98" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>386</v>
-      </c>
-      <c r="B99" t="s">
-        <v>516</v>
-      </c>
-      <c r="C99" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>340</v>
-      </c>
-      <c r="B102" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>341</v>
-      </c>
-      <c r="B103" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>342</v>
-      </c>
-      <c r="B104" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>349</v>
-      </c>
-      <c r="B105" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>346</v>
-      </c>
-      <c r="B106" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>387</v>
-      </c>
-      <c r="B107" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>388</v>
-      </c>
-      <c r="B108" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>348</v>
-      </c>
-      <c r="B109" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>350</v>
-      </c>
-      <c r="B110" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>389</v>
-      </c>
-      <c r="B111" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>390</v>
-      </c>
-      <c r="B112" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>391</v>
-      </c>
-      <c r="B113" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>392</v>
-      </c>
-      <c r="B114" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>393</v>
-      </c>
-      <c r="B115" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>394</v>
-      </c>
-      <c r="B116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>395</v>
-      </c>
-      <c r="B117" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>396</v>
-      </c>
-      <c r="B118" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>397</v>
-      </c>
-      <c r="B119" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>398</v>
-      </c>
-      <c r="B120" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>351</v>
-      </c>
-      <c r="B121" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>399</v>
-      </c>
-      <c r="B122" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>400</v>
-      </c>
-      <c r="B123" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>359</v>
-      </c>
-      <c r="B124" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>401</v>
-      </c>
-      <c r="B127" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>343</v>
-      </c>
-      <c r="B128" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>344</v>
-      </c>
-      <c r="B129" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>345</v>
-      </c>
-      <c r="B130" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>342</v>
-      </c>
-      <c r="B131" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>341</v>
-      </c>
-      <c r="B132" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>402</v>
-      </c>
-      <c r="B133" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>361</v>
-      </c>
-      <c r="B136" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>404</v>
-      </c>
-      <c r="B137" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>405</v>
-      </c>
-      <c r="B138" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>365</v>
-      </c>
-      <c r="B139" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>366</v>
-      </c>
-      <c r="B140" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>362</v>
-      </c>
-      <c r="B141" t="s">
-        <v>514</v>
-      </c>
-      <c r="C141" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>406</v>
-      </c>
-      <c r="B142" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>407</v>
-      </c>
-      <c r="B143" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>361</v>
-      </c>
-      <c r="B146" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>342</v>
-      </c>
-      <c r="B147" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>341</v>
-      </c>
-      <c r="B148" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>408</v>
-      </c>
-      <c r="B149" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>384</v>
-      </c>
-      <c r="B150" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>385</v>
-      </c>
-      <c r="B151" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>386</v>
-      </c>
-      <c r="B152" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>409</v>
-      </c>
-      <c r="B154" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>431</v>
-      </c>
-      <c r="B183" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>361</v>
-      </c>
-      <c r="B213" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>432</v>
-      </c>
-      <c r="B214" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>433</v>
-      </c>
-      <c r="B215" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>342</v>
-      </c>
-      <c r="B216" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>359</v>
-      </c>
-      <c r="B217" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>361</v>
-      </c>
-      <c r="B220" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>362</v>
-      </c>
-      <c r="B221" t="s">
-        <v>514</v>
-      </c>
-      <c r="C221" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>435</v>
-      </c>
-      <c r="B222" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>436</v>
-      </c>
-      <c r="B223" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>437</v>
-      </c>
-      <c r="B224" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>438</v>
-      </c>
-      <c r="B225" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>441</v>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>667</v>
+      </c>
+      <c r="B242" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>668</v>
+      </c>
+      <c r="B243" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/前后端接口文档.xlsx
+++ b/doc/前后端接口文档.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11025" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="43720" windowHeight="26940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3044,7 +3049,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3077,8 +3082,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3088,6 +3102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3101,15 +3121,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3122,10 +3166,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="10">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3183,7 +3238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3218,7 +3273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3429,37 +3484,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.25" customWidth="1"/>
-    <col min="11" max="11" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3467,7 +3522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3478,7 +3533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="98">
       <c r="C3" t="s">
         <v>234</v>
       </c>
@@ -3486,7 +3541,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
         <v>249</v>
       </c>
@@ -3500,7 +3555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="98">
       <c r="C5" t="s">
         <v>234</v>
       </c>
@@ -3508,7 +3563,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3522,7 +3577,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="C7" t="s">
         <v>234</v>
       </c>
@@ -3530,7 +3585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
         <v>238</v>
       </c>
@@ -3544,7 +3599,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="C9" t="s">
         <v>234</v>
       </c>
@@ -3552,12 +3607,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>243</v>
       </c>
@@ -3571,7 +3626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="C12" t="s">
         <v>234</v>
       </c>
@@ -3579,12 +3634,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -3610,7 +3665,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="409">
       <c r="C15" t="s">
         <v>234</v>
       </c>
@@ -3618,7 +3673,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -3629,12 +3684,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:22">
       <c r="C17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:22">
       <c r="B18" t="s">
         <v>150</v>
       </c>
@@ -3642,7 +3697,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:22">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -3662,7 +3717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:22">
       <c r="B20" t="s">
         <v>292</v>
       </c>
@@ -3676,7 +3731,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:22">
       <c r="B21" t="s">
         <v>132</v>
       </c>
@@ -3687,7 +3742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:22">
       <c r="B22" t="s">
         <v>133</v>
       </c>
@@ -3752,7 +3807,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:22">
       <c r="B23" t="s">
         <v>269</v>
       </c>
@@ -3763,7 +3818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:22">
       <c r="B24" t="s">
         <v>247</v>
       </c>
@@ -3783,12 +3838,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:22">
       <c r="B25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:22">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -3802,7 +3857,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:22">
       <c r="B27" t="s">
         <v>293</v>
       </c>
@@ -3813,7 +3868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:22">
       <c r="B28" t="s">
         <v>123</v>
       </c>
@@ -3824,7 +3879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:22" ht="15" customHeight="1">
       <c r="B29" t="s">
         <v>125</v>
       </c>
@@ -3886,7 +3941,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:22">
       <c r="B30" t="s">
         <v>324</v>
       </c>
@@ -3903,12 +3958,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:22">
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -3916,7 +3971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -3927,7 +3982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -3941,7 +3996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
         <v>109</v>
       </c>
@@ -3949,7 +4004,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9">
       <c r="B37" t="s">
         <v>110</v>
       </c>
@@ -3975,7 +4030,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
         <v>48</v>
       </c>
@@ -3983,7 +4038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>43</v>
       </c>
@@ -3994,7 +4049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -4002,7 +4057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
         <v>53</v>
       </c>
@@ -4013,7 +4068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -4021,7 +4076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
         <v>54</v>
       </c>
@@ -4032,7 +4087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
         <v>58</v>
       </c>
@@ -4040,7 +4095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9">
       <c r="B45" t="s">
         <v>59</v>
       </c>
@@ -4051,7 +4106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -4059,7 +4114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9">
       <c r="B47" t="s">
         <v>63</v>
       </c>
@@ -4070,7 +4125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9">
       <c r="B48" t="s">
         <v>65</v>
       </c>
@@ -4078,7 +4133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:16">
       <c r="B49" t="s">
         <v>66</v>
       </c>
@@ -4089,7 +4144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:16">
       <c r="B50" t="s">
         <v>73</v>
       </c>
@@ -4100,7 +4155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:16">
       <c r="B51" t="s">
         <v>81</v>
       </c>
@@ -4111,7 +4166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:16">
       <c r="B52" t="s">
         <v>77</v>
       </c>
@@ -4122,7 +4177,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:16">
       <c r="B53" t="s">
         <v>284</v>
       </c>
@@ -4133,12 +4188,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:16">
       <c r="B55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:16">
       <c r="B56" t="s">
         <v>83</v>
       </c>
@@ -4149,7 +4204,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:16">
       <c r="B57" t="s">
         <v>275</v>
       </c>
@@ -4196,7 +4251,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:16">
       <c r="B58" t="s">
         <v>94</v>
       </c>
@@ -4207,7 +4262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:16">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -4227,12 +4282,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:16">
       <c r="B61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:16">
       <c r="B62" t="s">
         <v>100</v>
       </c>
@@ -4249,7 +4304,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:16">
       <c r="B63" t="s">
         <v>103</v>
       </c>
@@ -4263,7 +4318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:16">
       <c r="B64" t="s">
         <v>106</v>
       </c>
@@ -4271,7 +4326,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21">
       <c r="B65" t="s">
         <v>107</v>
       </c>
@@ -4291,12 +4346,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21">
       <c r="B67" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21">
       <c r="B68" t="s">
         <v>119</v>
       </c>
@@ -4304,7 +4359,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21">
       <c r="B69" t="s">
         <v>122</v>
       </c>
@@ -4315,12 +4370,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21">
       <c r="B71" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21">
       <c r="B72" t="s">
         <v>156</v>
       </c>
@@ -4331,7 +4386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21">
       <c r="B73" t="s">
         <v>153</v>
       </c>
@@ -4342,7 +4397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21">
       <c r="B74" t="s">
         <v>157</v>
       </c>
@@ -4353,7 +4408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="B75" t="s">
         <v>159</v>
       </c>
@@ -4361,7 +4416,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="B76" t="s">
         <v>160</v>
       </c>
@@ -4399,7 +4454,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" s="2" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>171</v>
       </c>
@@ -4410,7 +4465,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="B79" t="s">
         <v>173</v>
       </c>
@@ -4418,7 +4473,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="B80" t="s">
         <v>174</v>
       </c>
@@ -4480,7 +4535,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" s="2" customFormat="1">
       <c r="A81" s="2" t="s">
         <v>171</v>
       </c>
@@ -4491,7 +4546,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" s="2" customFormat="1">
       <c r="A82" s="2" t="s">
         <v>171</v>
       </c>
@@ -4502,7 +4557,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" s="2" customFormat="1">
       <c r="A83" s="2" t="s">
         <v>171</v>
       </c>
@@ -4516,7 +4571,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" s="2" customFormat="1">
       <c r="A84" s="2" t="s">
         <v>171</v>
       </c>
@@ -4530,12 +4585,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13">
       <c r="B86" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13">
       <c r="B87" t="s">
         <v>285</v>
       </c>
@@ -4546,7 +4601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13">
       <c r="B88" t="s">
         <v>185</v>
       </c>
@@ -4560,7 +4615,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13">
       <c r="B89" t="s">
         <v>188</v>
       </c>
@@ -4571,7 +4626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13">
       <c r="B90" t="s">
         <v>190</v>
       </c>
@@ -4600,7 +4655,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13">
       <c r="B91" t="s">
         <v>195</v>
       </c>
@@ -4611,7 +4666,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13">
       <c r="B92" t="s">
         <v>198</v>
       </c>
@@ -4628,7 +4683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13">
       <c r="B93" t="s">
         <v>203</v>
       </c>
@@ -4639,7 +4694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13">
       <c r="B94" t="s">
         <v>214</v>
       </c>
@@ -4650,7 +4705,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13">
       <c r="B95" t="s">
         <v>213</v>
       </c>
@@ -4688,7 +4743,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13">
       <c r="B96" t="s">
         <v>206</v>
       </c>
@@ -4699,7 +4754,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:21">
       <c r="B97" t="s">
         <v>209</v>
       </c>
@@ -4710,7 +4765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:21">
       <c r="B98" t="s">
         <v>218</v>
       </c>
@@ -4721,7 +4776,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:21">
       <c r="B99" t="s">
         <v>217</v>
       </c>
@@ -4783,7 +4838,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:21">
       <c r="B100" t="s">
         <v>212</v>
       </c>
@@ -4794,7 +4849,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:21">
       <c r="B101" t="s">
         <v>220</v>
       </c>
@@ -4805,7 +4860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:21">
       <c r="B102" t="s">
         <v>271</v>
       </c>
@@ -4816,7 +4871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:21">
       <c r="B103" t="s">
         <v>224</v>
       </c>
@@ -4827,7 +4882,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:21">
       <c r="B104" t="s">
         <v>227</v>
       </c>
@@ -4841,7 +4896,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:21">
       <c r="B105" t="s">
         <v>230</v>
       </c>
@@ -4849,7 +4904,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:21">
       <c r="B106" t="s">
         <v>231</v>
       </c>
@@ -4869,7 +4924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:21">
       <c r="B108" t="s">
         <v>272</v>
       </c>
@@ -4883,7 +4938,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:21">
       <c r="B110" t="s">
         <v>325</v>
       </c>
@@ -4894,7 +4949,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4902,19 +4962,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="69.25" customWidth="1"/>
-    <col min="4" max="4" width="55.625" customWidth="1"/>
+    <col min="3" max="3" width="69.1640625" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="409">
       <c r="A1" t="s">
         <v>296</v>
       </c>
@@ -4928,7 +4988,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="409">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -4942,7 +5002,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="409">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -4956,7 +5016,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="378" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="392">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -4970,7 +5030,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="409">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -4984,7 +5044,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="409">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -4998,7 +5058,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="409">
       <c r="A7" t="s">
         <v>301</v>
       </c>
@@ -5012,7 +5072,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="378" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="392">
       <c r="A8" t="s">
         <v>303</v>
       </c>
@@ -5026,7 +5086,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="409">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -5040,7 +5100,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="56">
       <c r="A10" t="s">
         <v>321</v>
       </c>
@@ -5051,7 +5111,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="98">
       <c r="A11" t="s">
         <v>327</v>
       </c>
@@ -5062,7 +5122,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -5074,7 +5134,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -5085,7 +5145,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -5096,7 +5156,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>332</v>
       </c>
@@ -5107,7 +5167,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>333</v>
       </c>
@@ -5119,7 +5179,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>336</v>
       </c>
@@ -5130,7 +5190,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>557</v>
       </c>
@@ -5138,7 +5198,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>559</v>
       </c>
@@ -5146,7 +5206,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>561</v>
       </c>
@@ -5157,7 +5217,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>562</v>
       </c>
@@ -5168,7 +5228,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>565</v>
       </c>
@@ -5179,7 +5239,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>567</v>
       </c>
@@ -5190,7 +5250,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>577</v>
       </c>
@@ -5201,7 +5261,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>580</v>
       </c>
@@ -5212,7 +5272,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>588</v>
       </c>
@@ -5223,58 +5283,61 @@
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="B36" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>606</v>
       </c>
@@ -5285,7 +5348,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>607</v>
       </c>
@@ -5296,7 +5359,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>610</v>
       </c>
@@ -5307,7 +5370,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>611</v>
       </c>
@@ -5318,7 +5381,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>617</v>
       </c>
@@ -5329,7 +5392,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>618</v>
       </c>
@@ -5340,7 +5403,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>619</v>
       </c>
@@ -5348,7 +5411,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>620</v>
       </c>
@@ -5356,7 +5419,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>621</v>
       </c>
@@ -5364,7 +5427,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>622</v>
       </c>
@@ -5372,7 +5435,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>633</v>
       </c>
@@ -5383,7 +5446,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>635</v>
       </c>
@@ -5394,7 +5457,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>639</v>
       </c>
@@ -5405,7 +5468,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>641</v>
       </c>
@@ -5413,7 +5476,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>644</v>
       </c>
@@ -5439,7 +5502,12 @@
     <hyperlink ref="B10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5447,43 +5515,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.875" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>443</v>
       </c>
@@ -5491,7 +5559,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -5499,7 +5567,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -5507,7 +5575,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>345</v>
       </c>
@@ -5515,7 +5583,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>346</v>
       </c>
@@ -5523,7 +5591,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>347</v>
       </c>
@@ -5531,7 +5599,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>348</v>
       </c>
@@ -5539,7 +5607,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>349</v>
       </c>
@@ -5547,7 +5615,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>350</v>
       </c>
@@ -5555,7 +5623,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>351</v>
       </c>
@@ -5563,7 +5631,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>352</v>
       </c>
@@ -5571,7 +5639,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -5579,7 +5647,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>457</v>
       </c>
@@ -5587,7 +5655,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>355</v>
       </c>
@@ -5595,7 +5663,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>356</v>
       </c>
@@ -5603,7 +5671,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>357</v>
       </c>
@@ -5611,7 +5679,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>358</v>
       </c>
@@ -5619,7 +5687,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -5627,7 +5695,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>360</v>
       </c>
@@ -5635,7 +5703,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>361</v>
       </c>
@@ -5643,17 +5711,17 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>363</v>
       </c>
@@ -5661,7 +5729,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>344</v>
       </c>
@@ -5669,7 +5737,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>343</v>
       </c>
@@ -5677,7 +5745,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>364</v>
       </c>
@@ -5688,7 +5756,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>365</v>
       </c>
@@ -5696,7 +5764,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>366</v>
       </c>
@@ -5704,7 +5772,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -5712,7 +5780,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>361</v>
       </c>
@@ -5720,17 +5788,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>363</v>
       </c>
@@ -5738,7 +5806,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>342</v>
       </c>
@@ -5746,7 +5814,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>364</v>
       </c>
@@ -5757,7 +5825,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>367</v>
       </c>
@@ -5765,7 +5833,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>344</v>
       </c>
@@ -5773,7 +5841,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -5781,7 +5849,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>368</v>
       </c>
@@ -5792,7 +5860,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>369</v>
       </c>
@@ -5800,7 +5868,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>370</v>
       </c>
@@ -5808,17 +5876,17 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>363</v>
       </c>
@@ -5826,7 +5894,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -5834,7 +5902,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>343</v>
       </c>
@@ -5842,7 +5910,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -5850,7 +5918,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>372</v>
       </c>
@@ -5858,7 +5926,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>367</v>
       </c>
@@ -5866,7 +5934,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>361</v>
       </c>
@@ -5874,17 +5942,17 @@
         <v>488</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>363</v>
       </c>
@@ -5892,7 +5960,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>344</v>
       </c>
@@ -5900,7 +5968,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>343</v>
       </c>
@@ -5908,7 +5976,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -5916,7 +5984,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -5924,7 +5992,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>375</v>
       </c>
@@ -5932,7 +6000,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>376</v>
       </c>
@@ -5940,7 +6008,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>377</v>
       </c>
@@ -5948,7 +6016,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>378</v>
       </c>
@@ -5956,7 +6024,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>379</v>
       </c>
@@ -5964,7 +6032,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>380</v>
       </c>
@@ -5972,7 +6040,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>381</v>
       </c>
@@ -5980,7 +6048,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>382</v>
       </c>
@@ -5988,7 +6056,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>383</v>
       </c>
@@ -5996,7 +6064,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>384</v>
       </c>
@@ -6004,17 +6072,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>363</v>
       </c>
@@ -6022,7 +6090,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>344</v>
       </c>
@@ -6030,7 +6098,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>343</v>
       </c>
@@ -6038,7 +6106,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>373</v>
       </c>
@@ -6046,7 +6114,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>342</v>
       </c>
@@ -6054,7 +6122,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>385</v>
       </c>
@@ -6065,7 +6133,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>386</v>
       </c>
@@ -6076,17 +6144,17 @@
         <v>505</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>363</v>
       </c>
@@ -6094,7 +6162,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>344</v>
       </c>
@@ -6102,7 +6170,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>343</v>
       </c>
@@ -6110,7 +6178,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>345</v>
       </c>
@@ -6118,7 +6186,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>346</v>
       </c>
@@ -6126,7 +6194,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>347</v>
       </c>
@@ -6134,7 +6202,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>348</v>
       </c>
@@ -6142,7 +6210,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>387</v>
       </c>
@@ -6150,7 +6218,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>388</v>
       </c>
@@ -6158,7 +6226,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>354</v>
       </c>
@@ -6166,7 +6234,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>355</v>
       </c>
@@ -6174,7 +6242,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>357</v>
       </c>
@@ -6182,7 +6250,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>358</v>
       </c>
@@ -6190,7 +6258,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>359</v>
       </c>
@@ -6198,7 +6266,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>360</v>
       </c>
@@ -6206,7 +6274,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>389</v>
       </c>
@@ -6217,17 +6285,17 @@
         <v>517</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>342</v>
       </c>
@@ -6235,7 +6303,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>343</v>
       </c>
@@ -6243,7 +6311,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>344</v>
       </c>
@@ -6251,7 +6319,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>351</v>
       </c>
@@ -6259,7 +6327,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>348</v>
       </c>
@@ -6267,7 +6335,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>390</v>
       </c>
@@ -6275,7 +6343,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>391</v>
       </c>
@@ -6283,7 +6351,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>350</v>
       </c>
@@ -6291,7 +6359,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>352</v>
       </c>
@@ -6299,7 +6367,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>392</v>
       </c>
@@ -6307,7 +6375,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>393</v>
       </c>
@@ -6315,7 +6383,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>394</v>
       </c>
@@ -6323,7 +6391,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>395</v>
       </c>
@@ -6331,7 +6399,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>396</v>
       </c>
@@ -6339,7 +6407,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>397</v>
       </c>
@@ -6347,7 +6415,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>398</v>
       </c>
@@ -6355,7 +6423,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>399</v>
       </c>
@@ -6363,7 +6431,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>400</v>
       </c>
@@ -6371,7 +6439,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>401</v>
       </c>
@@ -6379,7 +6447,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>353</v>
       </c>
@@ -6387,7 +6455,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>402</v>
       </c>
@@ -6395,7 +6463,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>403</v>
       </c>
@@ -6403,7 +6471,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>361</v>
       </c>
@@ -6411,17 +6479,17 @@
         <v>488</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>404</v>
       </c>
@@ -6429,7 +6497,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>345</v>
       </c>
@@ -6437,7 +6505,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>346</v>
       </c>
@@ -6445,7 +6513,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>347</v>
       </c>
@@ -6453,7 +6521,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>344</v>
       </c>
@@ -6461,7 +6529,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>343</v>
       </c>
@@ -6469,7 +6537,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>405</v>
       </c>
@@ -6477,17 +6545,17 @@
         <v>502</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>363</v>
       </c>
@@ -6495,7 +6563,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>407</v>
       </c>
@@ -6503,7 +6571,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>408</v>
       </c>
@@ -6511,7 +6579,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>367</v>
       </c>
@@ -6519,7 +6587,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>368</v>
       </c>
@@ -6527,7 +6595,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>364</v>
       </c>
@@ -6538,7 +6606,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>409</v>
       </c>
@@ -6546,7 +6614,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>410</v>
       </c>
@@ -6554,17 +6622,17 @@
         <v>542</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>363</v>
       </c>
@@ -6572,7 +6640,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>344</v>
       </c>
@@ -6580,7 +6648,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>343</v>
       </c>
@@ -6588,7 +6656,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>411</v>
       </c>
@@ -6596,7 +6664,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>387</v>
       </c>
@@ -6604,7 +6672,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>388</v>
       </c>
@@ -6612,7 +6680,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>389</v>
       </c>
@@ -6620,12 +6688,12 @@
         <v>516</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>412</v>
       </c>
@@ -6633,147 +6701,147 @@
         <v>534</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>434</v>
       </c>
@@ -6781,152 +6849,152 @@
         <v>534</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1">
       <c r="A198" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1">
       <c r="A199" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1">
       <c r="A206" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>363</v>
       </c>
@@ -6934,7 +7002,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>435</v>
       </c>
@@ -6942,7 +7010,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>436</v>
       </c>
@@ -6950,7 +7018,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>344</v>
       </c>
@@ -6958,7 +7026,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>361</v>
       </c>
@@ -6966,17 +7034,17 @@
         <v>530</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>363</v>
       </c>
@@ -6984,7 +7052,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>364</v>
       </c>
@@ -6995,7 +7063,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>438</v>
       </c>
@@ -7003,7 +7071,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>439</v>
       </c>
@@ -7011,7 +7079,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>440</v>
       </c>
@@ -7019,7 +7087,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>441</v>
       </c>
@@ -7027,17 +7095,17 @@
         <v>524</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>653</v>
       </c>
@@ -7045,7 +7113,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>654</v>
       </c>
@@ -7053,7 +7121,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>655</v>
       </c>
@@ -7061,7 +7129,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>656</v>
       </c>
@@ -7069,12 +7137,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>658</v>
       </c>
@@ -7082,7 +7150,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>659</v>
       </c>
@@ -7090,7 +7158,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>660</v>
       </c>
@@ -7098,7 +7166,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>661</v>
       </c>
@@ -7106,7 +7174,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>662</v>
       </c>
@@ -7114,7 +7182,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>663</v>
       </c>
@@ -7122,7 +7190,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>664</v>
       </c>
@@ -7130,7 +7198,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>665</v>
       </c>
@@ -7138,7 +7206,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>666</v>
       </c>
@@ -7149,7 +7217,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>667</v>
       </c>
@@ -7157,7 +7225,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>668</v>
       </c>
@@ -7165,7 +7233,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>442</v>
       </c>
@@ -7173,6 +7241,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/前后端接口文档.xlsx
+++ b/doc/前后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="43720" windowHeight="26940" activeTab="1"/>
+    <workbookView xWindow="9700" yWindow="1620" windowWidth="43720" windowHeight="26940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3092,7 +3092,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3108,6 +3108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3153,7 +3159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3167,6 +3173,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4962,8 +4971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5251,35 +5260,35 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>589</v>
       </c>
     </row>
@@ -5515,8 +5524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/doc/前后端接口文档.xlsx
+++ b/doc/前后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="1620" windowWidth="43720" windowHeight="26940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="686">
   <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1676,13 +1676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userId:手机用户id
-consumerId:微信用户id
-orderId:订单id
-orderType:订单类型,1求购单；2未售单；3店铺；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户反馈列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2846,10 +2839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/unsold/unsoldList/{limitStart}/{limitCount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/unsold/showOrderDetail/{orderId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2975,73 +2964,89 @@
     <t xml:space="preserve">      "type": 0,</t>
   </si>
   <si>
+    <t xml:space="preserve">      "userId": 0</t>
+  </si>
+  <si>
+    <t>url中参数对象: {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求购单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未售单规格id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自于某个用户（消息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询开始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅记录id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送至某用户（消息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未售单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">      "unsoldOrderId": 0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "userId": 0</t>
-  </si>
-  <si>
-    <t>url中参数对象: {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求购单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未售单规格id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户反馈id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自于某个用户（消息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的关注id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询开始位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订阅记录id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送至某用户（消息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未售单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unsold/unsoldList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId,goodstypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId:手机用户id
+consumerId:微信用户id
+orderId:订单id
+orderType:订单类型,1求购单；2未售单；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3049,7 +3054,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3088,6 +3093,13 @@
       <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3159,7 +3171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3176,6 +3188,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3493,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E98" sqref="B86:U106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4971,8 +4986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4994,7 +5009,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409">
@@ -5036,7 +5051,7 @@
         <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409">
@@ -5117,7 +5132,7 @@
         <v>322</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>328</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="98">
@@ -5125,375 +5140,378 @@
         <v>327</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" t="s">
         <v>557</v>
-      </c>
-      <c r="B19" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" t="s">
         <v>559</v>
-      </c>
-      <c r="B20" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B22" t="s">
+        <v>569</v>
+      </c>
+      <c r="C22" t="s">
         <v>570</v>
-      </c>
-      <c r="C22" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>561</v>
+      </c>
+      <c r="B23" t="s">
         <v>562</v>
       </c>
-      <c r="B23" t="s">
-        <v>563</v>
-      </c>
       <c r="C23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>591</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B37" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C37" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>606</v>
+      </c>
+      <c r="B38" t="s">
         <v>607</v>
       </c>
-      <c r="B38" t="s">
-        <v>608</v>
-      </c>
       <c r="C38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>610</v>
+      </c>
+      <c r="B40" t="s">
         <v>611</v>
       </c>
-      <c r="B40" t="s">
-        <v>612</v>
-      </c>
       <c r="C40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B46" t="s">
-        <v>631</v>
+        <v>683</v>
+      </c>
+      <c r="C46" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B47" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B48" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C48" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B49" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B50" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C50" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B51" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>642</v>
+      </c>
+      <c r="B52" t="s">
+        <v>641</v>
+      </c>
+      <c r="C52" t="s">
         <v>644</v>
-      </c>
-      <c r="B52" t="s">
-        <v>643</v>
-      </c>
-      <c r="C52" t="s">
-        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -5524,8 +5542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5537,1714 +5555,1714 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" t="s">
         <v>443</v>
-      </c>
-      <c r="B6" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" t="s">
         <v>457</v>
-      </c>
-      <c r="B18" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" t="s">
         <v>468</v>
-      </c>
-      <c r="C31" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C44" t="s">
         <v>480</v>
-      </c>
-      <c r="C44" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B70" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B79" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B80" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" t="s">
+        <v>503</v>
+      </c>
+      <c r="C81" t="s">
         <v>504</v>
-      </c>
-      <c r="C81" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B91" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B94" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B95" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B96" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B97" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B98" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B99" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C99" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B106" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B108" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B109" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B110" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="6" customFormat="1">
+      <c r="A111" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>392</v>
-      </c>
-      <c r="B111" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B112" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B113" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B114" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B115" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B116" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B117" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B118" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B119" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B120" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B123" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B124" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B127" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B128" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B129" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B130" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B131" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B132" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B133" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B136" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B137" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B139" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B140" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B141" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C141" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B142" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B143" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B146" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B147" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B148" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B150" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B151" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B152" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B154" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B183" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B213" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B214" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B215" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B216" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B217" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B220" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B221" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C221" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B222" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B223" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B224" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B225" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B228" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B229" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B230" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B231" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B233" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B234" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B235" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B236" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B237" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B238" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B239" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B240" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B241" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C241" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="B242" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B243" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/doc/前后端接口文档.xlsx
+++ b/doc/前后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="690">
   <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1879,34 +1879,7 @@
     <t xml:space="preserve">      "owner": null,</t>
   </si>
   <si>
-    <t xml:space="preserve">      "referenceAmount": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "abrasion": null,</t>
-  </si>
-  <si>
     <t xml:space="preserve">      "blue": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "mouthEaten": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "corrosion": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "originId": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "inclinedcrack": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "cyclecrack": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "oiled": null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "darkpith": null,</t>
   </si>
   <si>
     <t xml:space="preserve">      "dimensionId": null,</t>
@@ -2862,10 +2835,6 @@
     <t>未售单传参对象</t>
   </si>
   <si>
-    <t>/unsold/addDimension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新规格信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3047,6 +3016,62 @@
 consumerId:微信用户id
 orderId:订单id
 orderType:订单类型,1求购单；2未售单；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unsold/addDimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "referenceAmount": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "mouthEaten": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "corrosion": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "originId": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "inclinedcrack": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "cyclecrack": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "oiled": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "darkpith": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "content": null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "subscript": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      "abrasion": null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3104,7 +3129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3126,6 +3151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,7 +3202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3191,6 +3222,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4986,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4995,7 +5029,7 @@
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
     <col min="3" max="3" width="69.1640625" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="409">
@@ -5009,7 +5043,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409">
@@ -5051,7 +5085,7 @@
         <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409">
@@ -5132,7 +5166,7 @@
         <v>322</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="98">
@@ -5140,7 +5174,7 @@
         <v>327</v>
       </c>
       <c r="B11" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>333</v>
@@ -5151,10 +5185,10 @@
         <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C12" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -5163,10 +5197,10 @@
         <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5174,10 +5208,10 @@
         <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C14" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5185,10 +5219,10 @@
         <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C15" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5199,7 +5233,7 @@
         <v>334</v>
       </c>
       <c r="C17" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -5208,310 +5242,318 @@
         <v>335</v>
       </c>
       <c r="B18" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C18" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B20" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>551</v>
+      </c>
+      <c r="B22" t="s">
         <v>560</v>
       </c>
-      <c r="B22" t="s">
-        <v>569</v>
-      </c>
       <c r="C22" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B23" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C23" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B24" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C24" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B25" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C25" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="B38" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="C39" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B37" t="s">
-        <v>649</v>
-      </c>
-      <c r="C37" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B38" t="s">
-        <v>607</v>
-      </c>
-      <c r="C38" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>609</v>
-      </c>
-      <c r="B39" t="s">
-        <v>608</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C44" s="7"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>611</v>
+      </c>
+      <c r="B46" t="s">
+        <v>673</v>
+      </c>
+      <c r="C46" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>612</v>
+      </c>
+      <c r="B47" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>622</v>
+      </c>
+      <c r="B48" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>610</v>
-      </c>
-      <c r="B40" t="s">
-        <v>611</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C48" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>616</v>
-      </c>
-      <c r="B41" t="s">
-        <v>612</v>
-      </c>
-      <c r="C41" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>617</v>
-      </c>
-      <c r="B42" t="s">
-        <v>613</v>
-      </c>
-      <c r="C42" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>618</v>
-      </c>
-      <c r="B43" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>619</v>
-      </c>
-      <c r="B44" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>620</v>
-      </c>
-      <c r="B46" t="s">
-        <v>683</v>
-      </c>
-      <c r="C46" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>621</v>
-      </c>
-      <c r="B47" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>631</v>
-      </c>
-      <c r="B48" t="s">
-        <v>632</v>
-      </c>
-      <c r="C48" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B49" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="C49" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B50" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C50" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B51" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B52" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C52" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -5542,8 +5584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5580,10 +5622,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5591,7 +5633,7 @@
         <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5599,7 +5641,7 @@
         <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5607,7 +5649,7 @@
         <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5615,7 +5657,7 @@
         <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5623,7 +5665,7 @@
         <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5631,7 +5673,7 @@
         <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5639,7 +5681,7 @@
         <v>348</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5647,7 +5689,7 @@
         <v>349</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5655,7 +5697,7 @@
         <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5663,7 +5705,7 @@
         <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5671,15 +5713,15 @@
         <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5687,7 +5729,7 @@
         <v>354</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5695,7 +5737,7 @@
         <v>355</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5703,7 +5745,7 @@
         <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5711,7 +5753,7 @@
         <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5719,7 +5761,7 @@
         <v>358</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5727,7 +5769,7 @@
         <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5735,7 +5777,7 @@
         <v>360</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5745,7 +5787,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5753,7 +5795,7 @@
         <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5761,7 +5803,7 @@
         <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5769,7 +5811,7 @@
         <v>342</v>
       </c>
       <c r="B30" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5777,10 +5819,10 @@
         <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C31" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5788,7 +5830,7 @@
         <v>364</v>
       </c>
       <c r="B32" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5796,7 +5838,7 @@
         <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5804,7 +5846,7 @@
         <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5812,7 +5854,7 @@
         <v>360</v>
       </c>
       <c r="B35" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5822,7 +5864,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5830,7 +5872,7 @@
         <v>362</v>
       </c>
       <c r="B38" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5838,7 +5880,7 @@
         <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5846,10 +5888,10 @@
         <v>363</v>
       </c>
       <c r="B40" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C40" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5857,7 +5899,7 @@
         <v>366</v>
       </c>
       <c r="B41" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5865,7 +5907,7 @@
         <v>343</v>
       </c>
       <c r="B42" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5873,7 +5915,7 @@
         <v>342</v>
       </c>
       <c r="B43" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5881,10 +5923,10 @@
         <v>367</v>
       </c>
       <c r="B44" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C44" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5892,7 +5934,7 @@
         <v>368</v>
       </c>
       <c r="B45" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5900,7 +5942,7 @@
         <v>369</v>
       </c>
       <c r="B46" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5910,7 +5952,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5918,7 +5960,7 @@
         <v>362</v>
       </c>
       <c r="B49" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5926,7 +5968,7 @@
         <v>343</v>
       </c>
       <c r="B50" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5934,7 +5976,7 @@
         <v>342</v>
       </c>
       <c r="B51" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5942,7 +5984,7 @@
         <v>370</v>
       </c>
       <c r="B52" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5950,7 +5992,7 @@
         <v>371</v>
       </c>
       <c r="B53" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5958,7 +6000,7 @@
         <v>366</v>
       </c>
       <c r="B54" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5966,7 +6008,7 @@
         <v>360</v>
       </c>
       <c r="B55" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5976,7 +6018,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5984,7 +6026,7 @@
         <v>362</v>
       </c>
       <c r="B58" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5992,7 +6034,7 @@
         <v>343</v>
       </c>
       <c r="B59" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6000,7 +6042,7 @@
         <v>342</v>
       </c>
       <c r="B60" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6008,7 +6050,7 @@
         <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6016,7 +6058,7 @@
         <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6024,7 +6066,7 @@
         <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6032,7 +6074,7 @@
         <v>375</v>
       </c>
       <c r="B64" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6040,7 +6082,7 @@
         <v>376</v>
       </c>
       <c r="B65" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6048,7 +6090,7 @@
         <v>377</v>
       </c>
       <c r="B66" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -6056,7 +6098,7 @@
         <v>378</v>
       </c>
       <c r="B67" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6064,7 +6106,7 @@
         <v>379</v>
       </c>
       <c r="B68" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6072,7 +6114,7 @@
         <v>380</v>
       </c>
       <c r="B69" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6080,7 +6122,7 @@
         <v>381</v>
       </c>
       <c r="B70" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6088,7 +6130,7 @@
         <v>382</v>
       </c>
       <c r="B71" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6096,7 +6138,7 @@
         <v>383</v>
       </c>
       <c r="B72" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -6106,7 +6148,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -6114,7 +6156,7 @@
         <v>362</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6122,7 +6164,7 @@
         <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6130,7 +6172,7 @@
         <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6138,7 +6180,7 @@
         <v>372</v>
       </c>
       <c r="B78" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -6146,7 +6188,7 @@
         <v>341</v>
       </c>
       <c r="B79" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -6154,10 +6196,10 @@
         <v>384</v>
       </c>
       <c r="B80" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C80" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -6165,10 +6207,10 @@
         <v>385</v>
       </c>
       <c r="B81" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C81" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -6178,7 +6220,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -6186,7 +6228,7 @@
         <v>362</v>
       </c>
       <c r="B84" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -6194,7 +6236,7 @@
         <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -6202,7 +6244,7 @@
         <v>342</v>
       </c>
       <c r="B86" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -6210,7 +6252,7 @@
         <v>344</v>
       </c>
       <c r="B87" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -6218,7 +6260,7 @@
         <v>345</v>
       </c>
       <c r="B88" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -6226,7 +6268,7 @@
         <v>346</v>
       </c>
       <c r="B89" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -6234,7 +6276,7 @@
         <v>347</v>
       </c>
       <c r="B90" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -6242,7 +6284,7 @@
         <v>386</v>
       </c>
       <c r="B91" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6250,7 +6292,7 @@
         <v>387</v>
       </c>
       <c r="B92" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6258,7 +6300,7 @@
         <v>353</v>
       </c>
       <c r="B93" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6266,7 +6308,7 @@
         <v>354</v>
       </c>
       <c r="B94" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6274,7 +6316,7 @@
         <v>356</v>
       </c>
       <c r="B95" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6282,7 +6324,7 @@
         <v>357</v>
       </c>
       <c r="B96" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6290,7 +6332,7 @@
         <v>358</v>
       </c>
       <c r="B97" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6298,7 +6340,7 @@
         <v>359</v>
       </c>
       <c r="B98" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6306,10 +6348,10 @@
         <v>388</v>
       </c>
       <c r="B99" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C99" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6319,7 +6361,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6327,7 +6369,7 @@
         <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6335,7 +6377,7 @@
         <v>342</v>
       </c>
       <c r="B103" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6343,7 +6385,7 @@
         <v>343</v>
       </c>
       <c r="B104" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6351,7 +6393,7 @@
         <v>350</v>
       </c>
       <c r="B105" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6359,7 +6401,7 @@
         <v>347</v>
       </c>
       <c r="B106" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6367,7 +6409,7 @@
         <v>389</v>
       </c>
       <c r="B107" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6375,7 +6417,7 @@
         <v>390</v>
       </c>
       <c r="B108" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6383,7 +6425,7 @@
         <v>349</v>
       </c>
       <c r="B109" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6391,119 +6433,119 @@
         <v>351</v>
       </c>
       <c r="B110" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="6" customFormat="1">
       <c r="A111" s="6" t="s">
-        <v>391</v>
+        <v>677</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>392</v>
+        <v>687</v>
       </c>
       <c r="B112" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B113" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>394</v>
+        <v>678</v>
       </c>
       <c r="B114" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>395</v>
+        <v>679</v>
       </c>
       <c r="B115" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>396</v>
+        <v>680</v>
       </c>
       <c r="B116" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>397</v>
+        <v>681</v>
       </c>
       <c r="B117" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>398</v>
+        <v>682</v>
       </c>
       <c r="B118" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>399</v>
+        <v>683</v>
       </c>
       <c r="B119" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>400</v>
+        <v>684</v>
       </c>
       <c r="B120" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>352</v>
+        <v>686</v>
       </c>
       <c r="B121" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B122" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B123" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>360</v>
+        <v>685</v>
       </c>
       <c r="B124" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -6513,15 +6555,15 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B127" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -6529,7 +6571,7 @@
         <v>344</v>
       </c>
       <c r="B128" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6537,7 +6579,7 @@
         <v>345</v>
       </c>
       <c r="B129" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6545,7 +6587,7 @@
         <v>346</v>
       </c>
       <c r="B130" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6553,7 +6595,7 @@
         <v>343</v>
       </c>
       <c r="B131" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6561,15 +6603,15 @@
         <v>342</v>
       </c>
       <c r="B132" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6579,7 +6621,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6587,23 +6629,23 @@
         <v>362</v>
       </c>
       <c r="B136" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B138" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -6611,7 +6653,7 @@
         <v>366</v>
       </c>
       <c r="B139" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -6619,7 +6661,7 @@
         <v>367</v>
       </c>
       <c r="B140" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -6627,26 +6669,26 @@
         <v>363</v>
       </c>
       <c r="B141" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C141" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B142" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B143" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -6656,7 +6698,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -6664,7 +6706,7 @@
         <v>362</v>
       </c>
       <c r="B146" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -6672,7 +6714,7 @@
         <v>343</v>
       </c>
       <c r="B147" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -6680,15 +6722,15 @@
         <v>342</v>
       </c>
       <c r="B148" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B149" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -6696,7 +6738,7 @@
         <v>386</v>
       </c>
       <c r="B150" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -6704,7 +6746,7 @@
         <v>387</v>
       </c>
       <c r="B151" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -6712,7 +6754,7 @@
         <v>388</v>
       </c>
       <c r="B152" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -6722,10 +6764,10 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B154" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -6735,27 +6777,27 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -6765,7 +6807,7 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -6775,47 +6817,47 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="173" spans="1:1">
@@ -6825,12 +6867,12 @@
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -6840,17 +6882,17 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -6860,7 +6902,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -6870,10 +6912,10 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B183" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -6883,27 +6925,27 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -6913,7 +6955,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -6923,47 +6965,47 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="202" spans="1:1">
@@ -6973,12 +7015,12 @@
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -6988,17 +7030,17 @@
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -7008,7 +7050,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -7018,7 +7060,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -7026,23 +7068,23 @@
         <v>362</v>
       </c>
       <c r="B213" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B214" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B215" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -7050,7 +7092,7 @@
         <v>343</v>
       </c>
       <c r="B216" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -7058,7 +7100,7 @@
         <v>360</v>
       </c>
       <c r="B217" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -7068,7 +7110,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -7076,7 +7118,7 @@
         <v>362</v>
       </c>
       <c r="B220" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -7084,185 +7126,185 @@
         <v>363</v>
       </c>
       <c r="B221" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C221" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B222" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B223" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B224" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B225" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B228" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B229" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B230" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B231" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B233" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B234" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B235" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B236" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B237" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B238" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B239" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B240" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B241" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C241" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B242" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B243" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/doc/前后端接口文档.xlsx
+++ b/doc/前后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3129,7 +3129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3157,6 +3157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3202,7 +3208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3225,6 +3231,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5018,10 +5027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5074,7 +5083,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="392">
+    <row r="4" spans="1:4" ht="409">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -5130,7 +5139,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="392">
+    <row r="8" spans="1:4" ht="409">
       <c r="A8" t="s">
         <v>303</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56">
+    <row r="10" spans="1:4" ht="140">
       <c r="A10" t="s">
         <v>321</v>
       </c>
@@ -5169,7 +5178,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="98">
+    <row r="11" spans="1:4" ht="252">
       <c r="A11" t="s">
         <v>327</v>
       </c>
@@ -5486,75 +5495,90 @@
       <c r="C44" s="7"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="A46" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="8" t="s">
         <v>674</v>
       </c>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="A47" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>621</v>
       </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="A48" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="8" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="8" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="8" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="8" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="8" t="s">
         <v>634</v>
       </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
